--- a/output_tables/DR2_results_M_LIN_non_calibrated_421S.xlsx
+++ b/output_tables/DR2_results_M_LIN_non_calibrated_421S.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.406</v>
+        <v>-2.398</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2.468</v>
+        <v>-2.471</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-2.3435</v>
+        <v>-2.3315</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-1.856</v>
+        <v>-1.848</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/output_tables/DR2_results_M_LIN_non_calibrated_421S.xlsx
+++ b/output_tables/DR2_results_M_LIN_non_calibrated_421S.xlsx
@@ -498,43 +498,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.398</v>
+        <v>-2.0535</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2.471</v>
+        <v>-2.611</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-2.3315</v>
+        <v>-1.9515</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-1.848</v>
+        <v>-1.3415</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-5.0525</v>
+        <v>-4.732</v>
       </c>
     </row>
   </sheetData>
